--- a/data/trans_dic/P40B_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P40B_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios</t>
+          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36,73%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25,44%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>33,55%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>37,25%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>40,12%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42,64%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>40,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45,35%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>35,07%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>36,46%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>39,2%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>42,98%</t>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>36,51%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>39,36%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>44,51%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>21,26%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>24,75%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,69; 40,66</t>
+          <t>32,62; 40,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,51; 39,86</t>
+          <t>32,18; 39,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,14; 42,51</t>
+          <t>34,36; 42,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,42; 47,19</t>
+          <t>37,93; 48,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,36; 36,87</t>
+          <t>16,53; 22,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,1; 40,61</t>
+          <t>21,7; 29,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,89; 43,37</t>
+          <t>30,2; 37,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,05; 46,1</t>
+          <t>34,09; 40,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,59; 37,72</t>
+          <t>36,42; 43,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,01; 39,04</t>
+          <t>41,38; 49,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,51; 42,01</t>
+          <t>20,2; 26,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>40,38; 45,79</t>
+          <t>21,29; 26,98</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>32,57; 37,64</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>33,6; 39,04</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>36,65; 42,04</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>41,34; 47,46</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>19,01; 23,3</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>22,47; 27,23</t>
         </is>
       </c>
     </row>
@@ -801,57 +910,87 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>27,58%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>27,46%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>30,6%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>22,92%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,03; 29,54</t>
+          <t>21,14; 29,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,6; 33,68</t>
+          <t>24,82; 34,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,1; 32,65</t>
+          <t>24,03; 33,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,56; 50,24</t>
+          <t>25,0; 34,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,09; 29,66</t>
+          <t>17,93; 32,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,65; 29,63</t>
+          <t>14,78; 25,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,01; 30,18</t>
+          <t>21,91; 28,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,64; 46,67</t>
+          <t>22,89; 29,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,92; 27,87</t>
+          <t>22,88; 30,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,47; 30,6</t>
+          <t>27,28; 36,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,61; 30,11</t>
+          <t>17,36; 27,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,61; 46,5</t>
+          <t>14,58; 24,56</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>22,52; 28,16</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>24,68; 30,35</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 30,43</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>27,44; 33,78</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 28,55</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 23,23</t>
         </is>
       </c>
     </row>
@@ -941,55 +1110,85 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>16,26%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>23,01%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17,51%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>19,84%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,56%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>21,22%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>16,51%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>17,81%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>16,66%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,22; 26,87</t>
+          <t>12,96; 27,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 22,64</t>
+          <t>10,64; 22,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 23,41</t>
+          <t>10,27; 22,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>10,07; 26,4</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>16,88; 29,35</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,02; 23,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,51; 26,41</t>
+          <t>16,57; 29,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>12,31; 24,12</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13,93; 25,75</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19,12; 34,75</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>16,78; 26,63</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>12,88; 21,08</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>13,76; 22,29</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 26,06</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>13,06; 21,64</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 22,59</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 26,82</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1081,57 +1310,87 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>29,53%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>32,15%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>36,25%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>21,64%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>23,52%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,83; 32,33</t>
+          <t>27,35; 32,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,93; 33,28</t>
+          <t>28,15; 33,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,92; 34,43</t>
+          <t>29,1; 34,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,68; 46,38</t>
+          <t>31,69; 38,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,06; 31,36</t>
+          <t>17,71; 23,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,21; 32,73</t>
+          <t>21,22; 27,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,19; 34,69</t>
+          <t>26,74; 31,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,87; 45,16</t>
+          <t>28,58; 33,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,87; 31,26</t>
+          <t>30,43; 34,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 32,25</t>
+          <t>34,96; 40,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,3; 33,69</t>
+          <t>20,57; 25,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>40,32; 44,96</t>
+          <t>20,54; 25,62</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>27,84; 31,42</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>28,88; 32,42</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>30,3; 33,92</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>34,11; 38,51</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 23,61</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 25,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios (tasa de respuesta: 99,83%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>535.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>592.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>659.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>570.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>602476</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>584963</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>634099</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>712308</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>44481</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>57571</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>600874</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>671496</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>715996</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>813385</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>54541</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>56802</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1203350</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1256459</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1350095</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1525693</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>99023</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>114373</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>534951; 665067</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>527397; 647743</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>564649; 700090</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>619890; 789214</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>37866; 51844</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>49090; 66467</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>540882; 662678</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>614620; 732405</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>650454; 771333</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>742108; 887098</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47826; 61553</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50192; 63616</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1117482; 1291313</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1156476; 1343541</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1257113; 1441754</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1417248; 1626902</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>88537; 108526</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>103817; 125825</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>345802</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>401817</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>391381</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>411024</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17105</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14253</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>359392</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>356231</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>366455</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>431800</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14314</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12922</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>705194</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>758048</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>757836</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>842823</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>31419</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>27175</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>293111; 408223</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>341808; 471730</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>331492; 461168</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>343163; 477168</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12961; 23284</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10775; 18375</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>308877; 406618</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>313807; 406171</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>315735; 416978</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>376874; 501227</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11250; 18091</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9755; 16438</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>629824; 787543</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>678334; 834071</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>686118; 839843</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>755653; 930209</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>26405; 39151</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>22120; 32477</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>82371</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>67006</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>67962</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68084</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>94781</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>70970</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>80870</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>105283</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>177151</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>137976</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>148833</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>173367</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>54811; 115112</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>44997; 96947</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>43415; 95922</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>42155; 110528</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>68249; 121615</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49935; 97825</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>56781; 104992</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>78761; 143134</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>141770; 217534</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>108201; 179296</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>116410; 187586</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>130873; 222724</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>462.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>392.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>482.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>586.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>539.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>903.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>965.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1048.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>931.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>454.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1030648</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1053786</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1093442</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1191415</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>61586</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>71824</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1055047</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1098697</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1163321</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1350468</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>68856</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>69724</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2085695</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2152483</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2256763</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2541884</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>130442</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>141548</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>943307; 1126758</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>968015; 1159539</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1002803; 1187760</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1085448; 1307720</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>53359; 70675</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>63497; 82337</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>965934; 1140502</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1023104; 1181686</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1087493; 1250443</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1253843; 1452413</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>62029; 77608</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>62185; 77551</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1965821; 2218783</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2026707; 2275686</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2127109; 2381367</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2392369; 2700841</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>118654; 142319</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>130566; 153528</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
